--- a/apex/apex_legends.xlsx
+++ b/apex/apex_legends.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\inGameSelection\apex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\John\AUTOvalorant\apex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9A8C0-7B6C-403A-BF5E-DDD17BB38577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9334E5D-AF5F-4D71-9125-13BE498C249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16543" yWindow="-3360" windowWidth="16629" windowHeight="18600" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
+    <workbookView xWindow="41490" yWindow="405" windowWidth="28110" windowHeight="19785" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
-    <t xml:space="preserve">order </t>
-  </si>
-  <si>
     <t>legends</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>wattson</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -498,19 +498,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,16 +518,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>948</v>
+        <v>626</v>
       </c>
       <c r="E2">
-        <v>626</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,16 +535,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>948</v>
+        <v>730</v>
       </c>
       <c r="E3">
-        <v>730</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>948</v>
+        <v>840</v>
       </c>
       <c r="E4">
-        <v>840</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E5">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,16 +586,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>948</v>
+        <v>1060</v>
       </c>
       <c r="E6">
-        <v>1060</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,16 +603,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>948</v>
+        <v>1283</v>
       </c>
       <c r="E7">
-        <v>1283</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,16 +620,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>948</v>
+        <v>1390</v>
       </c>
       <c r="E8">
-        <v>1390</v>
+        <v>948</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,16 +637,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>948</v>
+        <v>1478</v>
       </c>
       <c r="E9">
-        <v>1478</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,16 +654,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>948</v>
+        <v>1598</v>
       </c>
       <c r="E10">
-        <v>1598</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,16 +671,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>948</v>
+        <v>1710</v>
       </c>
       <c r="E11">
-        <v>1710</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,16 +688,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>948</v>
+        <v>1829</v>
       </c>
       <c r="E12">
-        <v>1829</v>
+        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,16 +705,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>1134</v>
+        <v>409</v>
       </c>
       <c r="E13">
-        <v>409</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,16 +722,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>1134</v>
+        <v>525</v>
       </c>
       <c r="E14">
-        <v>525</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,16 +739,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1134</v>
+        <v>630</v>
       </c>
       <c r="E15">
-        <v>630</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,16 +756,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>1134</v>
+        <v>736</v>
       </c>
       <c r="E16">
-        <v>736</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,16 +773,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>1134</v>
+        <v>972</v>
       </c>
       <c r="E17">
-        <v>972</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,16 +790,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>1134</v>
+        <v>1061</v>
       </c>
       <c r="E18">
-        <v>1061</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,16 +807,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>1134</v>
+        <v>1173</v>
       </c>
       <c r="E19">
-        <v>1173</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,16 +824,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>1134</v>
+        <v>1282</v>
       </c>
       <c r="E20">
-        <v>1282</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,16 +841,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>1134</v>
+        <v>1395</v>
       </c>
       <c r="E21">
-        <v>1395</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,16 +858,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>1134</v>
+        <v>1507</v>
       </c>
       <c r="E22">
-        <v>1507</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,16 +875,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>1134</v>
+        <v>1735</v>
       </c>
       <c r="E23">
-        <v>1735</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,16 +892,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>1134</v>
+        <v>1846</v>
       </c>
       <c r="E24">
-        <v>1846</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,16 +909,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>1134</v>
+        <v>1961</v>
       </c>
       <c r="E25">
-        <v>1961</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,16 +926,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>1134</v>
+        <v>2056</v>
       </c>
       <c r="E26">
-        <v>2056</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
